--- a/docs/source/examples_jupyter/chemkin_io/inputs/NH3_Input_Data.xlsx
+++ b/docs/source/examples_jupyter/chemkin_io/inputs/NH3_Input_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Dropbox\UDel Documents (Dropbox)\UDel Research\Github\pMuTT_master\docs\source\examples_jupyter\chemkin_io\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Dropbox\UDel Documents (Dropbox)\UDel Research\Github\pMuTT_development\docs\source\examples_jupyter\chemkin_io\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6C549F-3E4D-4661-82A0-5132AA74D077}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D59E9D5-7A23-4DC1-A9CD-06A85EDBF6C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="576" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cat_sites" sheetId="4" r:id="rId1"/>
@@ -1099,7 +1099,10 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:D3"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,7 +1160,10 @@
   <dimension ref="A1:BC29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:M5"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1605,8 +1611,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ60"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:T17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2635,8 +2644,8 @@
         <v>4</v>
       </c>
       <c r="H12" s="4">
-        <f>-20.4299999999999+0.9</f>
-        <v>-19.529999999999902</v>
+        <f>H9+1.19</f>
+        <v>-19.239999999999949</v>
       </c>
       <c r="I12" s="4">
         <v>3453.4106299999999</v>
@@ -2725,8 +2734,8 @@
         <v>4</v>
       </c>
       <c r="H13" s="4">
-        <f>-16.59+0.5</f>
-        <v>-16.09</v>
+        <f>H10+0.72</f>
+        <v>-15.869999999999974</v>
       </c>
       <c r="I13" s="4">
         <v>3426.4448400000001</v>
@@ -2809,8 +2818,8 @@
         <v>4</v>
       </c>
       <c r="H14" s="4">
-        <f>-13.21+0.3</f>
-        <v>-12.91</v>
+        <f>H11+1.28</f>
+        <v>-11.92999999999998</v>
       </c>
       <c r="I14" s="4">
         <v>1201.6048699999999</v>
@@ -2887,8 +2896,8 @@
         <v>4</v>
       </c>
       <c r="H15" s="4">
-        <f>-17.24+0.7</f>
-        <v>-16.54</v>
+        <f>H6+2.57</f>
+        <v>-14.669999999999952</v>
       </c>
       <c r="I15" s="4">
         <v>485.61399999999998</v>
@@ -4679,8 +4688,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB50E3A2-FDBB-4648-8333-2A8A81886E9C}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:B9"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/source/examples_jupyter/chemkin_io/inputs/NH3_Input_Data.xlsx
+++ b/docs/source/examples_jupyter/chemkin_io/inputs/NH3_Input_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Dropbox\UDel Documents (Dropbox)\UDel Research\Github\pMuTT_development\docs\source\examples_jupyter\chemkin_io\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Dropbox (Personal)\UDel Documents (Dropbox)\UDel Research\Github\pMuTT_development\docs\source\examples_jupyter\chemkin_io\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D59E9D5-7A23-4DC1-A9CD-06A85EDBF6C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731EE696-8B0B-40A9-B9AA-02C5B765543D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cat_sites" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="66">
   <si>
     <t>S</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>vib_wavenumber</t>
+  </si>
+  <si>
+    <t>elements.RU</t>
+  </si>
+  <si>
+    <t>Ru</t>
   </si>
 </sst>
 </file>
@@ -1157,13 +1163,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC39740C-BBBA-4550-A14F-BA7A8AC6E618}">
-  <dimension ref="A1:BC29"/>
+  <dimension ref="A1:BD29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,16 +1177,17 @@
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1191,25 +1198,25 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>63</v>
@@ -1220,7 +1227,9 @@
       <c r="M1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -1262,8 +1271,9 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
-    </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD1" s="1"/>
+    </row>
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -1274,25 +1284,25 @@
         <v>13</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>20</v>
@@ -1303,9 +1313,12 @@
       <c r="M2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AP2" s="1"/>
-    </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="N2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ2" s="1"/>
+    </row>
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1316,28 +1329,31 @@
         <v>0</v>
       </c>
       <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
         <v>298.14999999999998</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-16.63</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>23</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2744</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1348,37 +1364,40 @@
         <v>3</v>
       </c>
       <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
         <v>298.14999999999998</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-18.380253106718484</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-19.54</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>24</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>3534</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>3464</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1765</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1139</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1389,218 +1408,260 @@
         <v>2</v>
       </c>
       <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
         <v>298.14999999999998</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>-6.77</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>25</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>4342</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="3"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="G7" s="3"/>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="2"/>
       <c r="F8" s="3"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="G8" s="3"/>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="3"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="G9" s="3"/>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="2"/>
       <c r="F10" s="3"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="G10" s="3"/>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="3"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="G11" s="3"/>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="G12" s="3"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="2"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="G13" s="3"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="2"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="G14" s="3"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="G15" s="3"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
+      <c r="E16" s="2"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G16" s="3"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="3"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="3"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="3"/>
+      <c r="E19" s="2"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="3"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="3"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="3"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="3"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="3"/>
+      <c r="E22" s="2"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="3"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="3"/>
+      <c r="E23" s="2"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="3"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="2"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="3"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="3"/>
+      <c r="E25" s="2"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="3"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="3"/>
+      <c r="E26" s="2"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="3"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="3"/>
+      <c r="E27" s="2"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="3"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="3"/>
+      <c r="E28" s="2"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="3"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="3"/>
+      <c r="E29" s="2"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="2"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1609,13 +1670,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BQ60"/>
+  <dimension ref="A1:BR60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1623,13 +1684,14 @@
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1640,22 +1702,22 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>63</v>
@@ -1690,10 +1752,12 @@
       <c r="T1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="U1" s="1"/>
+      <c r="U1" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
-      <c r="Y1" s="1"/>
+      <c r="X1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
@@ -1738,8 +1802,9 @@
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
       <c r="BQ1" s="1"/>
-    </row>
-    <row r="2" spans="1:69" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BR1" s="1"/>
+    </row>
+    <row r="2" spans="1:70" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -1749,23 +1814,23 @@
       <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>20</v>
@@ -1800,10 +1865,12 @@
       <c r="T2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="1"/>
+      <c r="U2" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="Y2" s="1"/>
+      <c r="X2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
@@ -1848,8 +1915,9 @@
       <c r="BO2" s="1"/>
       <c r="BP2" s="1"/>
       <c r="BQ2" s="1"/>
-    </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BR2" s="1"/>
+    </row>
+    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1859,28 +1927,30 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>-16.63</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>2744</v>
       </c>
-      <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="5"/>
+      <c r="M3" s="4"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -1888,10 +1958,10 @@
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
-      <c r="U3" s="1"/>
+      <c r="U3" s="5"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="Y3" s="1"/>
+      <c r="X3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
@@ -1936,8 +2006,9 @@
       <c r="BO3" s="1"/>
       <c r="BP3" s="1"/>
       <c r="BQ3" s="1"/>
-    </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BR3" s="1"/>
+    </row>
+    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1947,34 +2018,36 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>-19.54</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>3534</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>3464</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>1765</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
         <v>1139</v>
       </c>
-      <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
@@ -1982,10 +2055,10 @@
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
-      <c r="U4" s="1"/>
+      <c r="U4" s="5"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="Y4" s="1"/>
+      <c r="X4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
@@ -2030,8 +2103,9 @@
       <c r="BO4" s="1"/>
       <c r="BP4" s="1"/>
       <c r="BQ4" s="1"/>
-    </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BR4" s="1"/>
+    </row>
+    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -2041,28 +2115,30 @@
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>-6.77</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>4342</v>
       </c>
-      <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="5"/>
+      <c r="M5" s="4"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
@@ -2070,10 +2146,10 @@
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
-      <c r="U5" s="1"/>
+      <c r="U5" s="5"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="Y5" s="1"/>
+      <c r="X5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
@@ -2118,8 +2194,9 @@
       <c r="BO5" s="1"/>
       <c r="BP5" s="1"/>
       <c r="BQ5" s="1"/>
-    </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BR5" s="1"/>
+    </row>
+    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -2129,43 +2206,45 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>-17.239999999999952</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>2197.19</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>360.41500000000002</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>347.34300000000002</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
         <v>335.67399999999998</v>
       </c>
-      <c r="M6" s="4">
+      <c r="N6" s="4">
         <v>62.076000000000001</v>
       </c>
-      <c r="N6" s="4">
+      <c r="O6" s="4">
         <v>32.179400000000001</v>
       </c>
-      <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="1"/>
+      <c r="U6" s="4"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="Y6" s="1"/>
+      <c r="X6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
@@ -2210,8 +2289,9 @@
       <c r="BO6" s="1"/>
       <c r="BP6" s="1"/>
       <c r="BQ6" s="1"/>
-    </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BR6" s="1"/>
+    </row>
+    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2221,41 +2301,43 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>-9.339999999999975</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>549.10500000000002</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>538.55999999999995</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>504.32299999999998</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
         <v>475.80500000000001</v>
       </c>
-      <c r="M7" s="4">
+      <c r="N7" s="4">
         <v>459.08100000000002</v>
       </c>
-      <c r="N7" s="4">
+      <c r="O7" s="4">
         <v>410.01799999999997</v>
       </c>
-      <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
-      <c r="U7" s="1"/>
-      <c r="Z7" s="1"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
@@ -2288,7 +2370,7 @@
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
       <c r="BF7" s="1"/>
-      <c r="BH7" s="1"/>
+      <c r="BG7" s="1"/>
       <c r="BI7" s="1"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
@@ -2298,8 +2380,9 @@
       <c r="BO7" s="1"/>
       <c r="BP7" s="1"/>
       <c r="BQ7" s="1"/>
-    </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BR7" s="1"/>
+    </row>
+    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -2309,25 +2392,27 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>-4</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>1003.51</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>625.54999999999995</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>616.29</v>
       </c>
-      <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -2336,8 +2421,8 @@
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
-      <c r="U8" s="1"/>
-      <c r="AI8" s="1"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="1"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
@@ -2361,7 +2446,7 @@
       <c r="BD8" s="1"/>
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
-      <c r="BH8" s="1"/>
+      <c r="BG8" s="1"/>
       <c r="BI8" s="1"/>
       <c r="BJ8" s="1"/>
       <c r="BK8" s="1"/>
@@ -2371,8 +2456,9 @@
       <c r="BO8" s="1"/>
       <c r="BP8" s="1"/>
       <c r="BQ8" s="1"/>
-    </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BR8" s="1"/>
+    </row>
+    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -2382,53 +2468,55 @@
       <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>-20.42999999999995</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>3491.0891299999998</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>3488.8194899999999</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>3364.5232299999998</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <v>1583.5157099999999</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="4">
         <v>1582.0703000000001</v>
       </c>
-      <c r="N9" s="4">
+      <c r="O9" s="4">
         <v>1124.22477</v>
       </c>
-      <c r="O9" s="4">
+      <c r="P9" s="4">
         <v>570.21231</v>
       </c>
-      <c r="P9" s="4">
+      <c r="Q9" s="4">
         <v>567.22147099999995</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="R9" s="4">
         <v>333.08962400000001</v>
       </c>
-      <c r="R9" s="4">
+      <c r="S9" s="4">
         <v>122.859345</v>
       </c>
-      <c r="S9" s="4">
+      <c r="T9" s="4">
         <v>83.828554999999994</v>
       </c>
-      <c r="T9" s="4">
+      <c r="U9" s="4">
         <v>70.625114999999994</v>
       </c>
-      <c r="U9" s="1"/>
-      <c r="AI9" s="1"/>
+      <c r="V9" s="1"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
@@ -2452,7 +2540,7 @@
       <c r="BD9" s="1"/>
       <c r="BE9" s="1"/>
       <c r="BF9" s="1"/>
-      <c r="BH9" s="1"/>
+      <c r="BG9" s="1"/>
       <c r="BI9" s="1"/>
       <c r="BJ9" s="1"/>
       <c r="BK9" s="1"/>
@@ -2462,8 +2550,9 @@
       <c r="BO9" s="1"/>
       <c r="BP9" s="1"/>
       <c r="BQ9" s="1"/>
-    </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BR9" s="1"/>
+    </row>
+    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -2473,47 +2562,49 @@
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>-16.589999999999975</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>3469.3003399999998</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>3381.05197</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>1503.01629</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
         <v>698.86880399999995</v>
       </c>
-      <c r="M10" s="4">
+      <c r="N10" s="4">
         <v>625.59609399999999</v>
       </c>
-      <c r="N10" s="4">
+      <c r="O10" s="4">
         <v>615.93978300000003</v>
       </c>
-      <c r="O10" s="4">
+      <c r="P10" s="4">
         <v>475.130224</v>
       </c>
-      <c r="P10" s="4">
+      <c r="Q10" s="4">
         <v>298.12000999999998</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="R10" s="4">
         <v>153.25013899999999</v>
       </c>
-      <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
-      <c r="U10" s="1"/>
-      <c r="AI10" s="1"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="1"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
@@ -2537,7 +2628,7 @@
       <c r="BD10" s="1"/>
       <c r="BE10" s="1"/>
       <c r="BF10" s="1"/>
-      <c r="BH10" s="1"/>
+      <c r="BG10" s="1"/>
       <c r="BI10" s="1"/>
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
@@ -2547,8 +2638,9 @@
       <c r="BO10" s="1"/>
       <c r="BP10" s="1"/>
       <c r="BQ10" s="1"/>
-    </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BR10" s="1"/>
+    </row>
+    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -2558,41 +2650,43 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>-13.20999999999998</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>3403.12878</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>718.17758800000001</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>710.58051999999998</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
         <v>528.52565900000002</v>
       </c>
-      <c r="M11" s="4">
+      <c r="N11" s="4">
         <v>415.19586900000002</v>
       </c>
-      <c r="N11" s="4">
+      <c r="O11" s="4">
         <v>410.13079699999997</v>
       </c>
-      <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
-      <c r="U11" s="1"/>
-      <c r="AI11" s="1"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="1"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
@@ -2616,7 +2710,7 @@
       <c r="BD11" s="1"/>
       <c r="BE11" s="1"/>
       <c r="BF11" s="1"/>
-      <c r="BH11" s="1"/>
+      <c r="BG11" s="1"/>
       <c r="BI11" s="1"/>
       <c r="BJ11" s="1"/>
       <c r="BK11" s="1"/>
@@ -2626,8 +2720,9 @@
       <c r="BO11" s="1"/>
       <c r="BP11" s="1"/>
       <c r="BQ11" s="1"/>
-    </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BR11" s="1"/>
+    </row>
+    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -2637,52 +2732,54 @@
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="4">
-        <f>H9+1.19</f>
+      <c r="I12" s="4">
+        <f>I9+1.19</f>
         <v>-19.239999999999949</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>3453.4106299999999</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>3355.6699199999998</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>1723.84977</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
         <v>1487.9548400000001</v>
       </c>
-      <c r="M12" s="4">
+      <c r="N12" s="4">
         <v>959.15072299999997</v>
       </c>
-      <c r="N12" s="4">
+      <c r="O12" s="4">
         <v>888.94619799999998</v>
       </c>
-      <c r="O12" s="4">
+      <c r="P12" s="4">
         <v>594.08943899999997</v>
       </c>
-      <c r="P12" s="4">
+      <c r="Q12" s="4">
         <v>428.43113599999998</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="R12" s="4">
         <v>227.032386</v>
       </c>
-      <c r="R12" s="4">
+      <c r="S12" s="4">
         <v>206.046727</v>
       </c>
-      <c r="S12" s="4">
+      <c r="T12" s="4">
         <v>142.13585599999999</v>
       </c>
-      <c r="T12" s="4"/>
-      <c r="U12" s="1"/>
-      <c r="AI12" s="1"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="1"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
@@ -2706,7 +2803,7 @@
       <c r="BD12" s="1"/>
       <c r="BE12" s="1"/>
       <c r="BF12" s="1"/>
-      <c r="BH12" s="1"/>
+      <c r="BG12" s="1"/>
       <c r="BI12" s="1"/>
       <c r="BJ12" s="1"/>
       <c r="BK12" s="1"/>
@@ -2716,8 +2813,9 @@
       <c r="BO12" s="1"/>
       <c r="BP12" s="1"/>
       <c r="BQ12" s="1"/>
-    </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BR12" s="1"/>
+    </row>
+    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -2727,46 +2825,48 @@
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="4">
-        <f>H10+0.72</f>
+      <c r="I13" s="4">
+        <f>I10+0.72</f>
         <v>-15.869999999999974</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>3426.4448400000001</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>1293.72327</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>922.83076800000003</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <v>660.96659799999998</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="4">
         <v>525.59512400000006</v>
       </c>
-      <c r="N13" s="4">
+      <c r="O13" s="4">
         <v>496.83726300000001</v>
       </c>
-      <c r="O13" s="4">
+      <c r="P13" s="4">
         <v>330.67445900000001</v>
       </c>
-      <c r="P13" s="4">
+      <c r="Q13" s="4">
         <v>290.27800500000001</v>
       </c>
-      <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
-      <c r="U13" s="1"/>
-      <c r="AI13" s="1"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="1"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
@@ -2790,7 +2890,7 @@
       <c r="BD13" s="1"/>
       <c r="BE13" s="1"/>
       <c r="BF13" s="1"/>
-      <c r="BH13" s="1"/>
+      <c r="BG13" s="1"/>
       <c r="BI13" s="1"/>
       <c r="BJ13" s="1"/>
       <c r="BK13" s="1"/>
@@ -2800,8 +2900,9 @@
       <c r="BO13" s="1"/>
       <c r="BP13" s="1"/>
       <c r="BQ13" s="1"/>
-    </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BR13" s="1"/>
+    </row>
+    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -2811,40 +2912,42 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="4">
-        <f>H11+1.28</f>
+      <c r="I14" s="4">
+        <f>I11+1.28</f>
         <v>-11.92999999999998</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>1201.6048699999999</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>491.566416</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>462.01550200000003</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
         <v>402.15890400000001</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N14" s="4">
         <v>242.13872599999999</v>
       </c>
-      <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
-      <c r="U14" s="1"/>
-      <c r="AI14" s="1"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="1"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
@@ -2868,7 +2971,7 @@
       <c r="BD14" s="1"/>
       <c r="BE14" s="1"/>
       <c r="BF14" s="1"/>
-      <c r="BH14" s="1"/>
+      <c r="BG14" s="1"/>
       <c r="BI14" s="1"/>
       <c r="BJ14" s="1"/>
       <c r="BK14" s="1"/>
@@ -2878,8 +2981,9 @@
       <c r="BO14" s="1"/>
       <c r="BP14" s="1"/>
       <c r="BQ14" s="1"/>
-    </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BR14" s="1"/>
+    </row>
+    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -2889,40 +2993,42 @@
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="4">
-        <f>H6+2.57</f>
+      <c r="I15" s="4">
+        <f>I6+2.57</f>
         <v>-14.669999999999952</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>485.61399999999998</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>392.97699999999998</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>386.18599999999998</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
         <v>280.94299999999998</v>
       </c>
-      <c r="M15" s="4">
+      <c r="N15" s="4">
         <v>168.43100000000001</v>
       </c>
-      <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
-      <c r="U15" s="1"/>
-      <c r="AH15" s="1"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
@@ -2946,7 +3052,7 @@
       <c r="BC15" s="1"/>
       <c r="BD15" s="1"/>
       <c r="BE15" s="1"/>
-      <c r="BG15" s="1"/>
+      <c r="BF15" s="1"/>
       <c r="BH15" s="1"/>
       <c r="BI15" s="1"/>
       <c r="BJ15" s="1"/>
@@ -2956,8 +3062,9 @@
       <c r="BN15" s="1"/>
       <c r="BO15" s="1"/>
       <c r="BP15" s="1"/>
-    </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BQ15" s="1"/>
+    </row>
+    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -2967,13 +3074,15 @@
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
         <v>0</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -2986,8 +3095,8 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
-      <c r="U16" s="1"/>
-      <c r="AI16" s="1"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="1"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
@@ -3011,7 +3120,7 @@
       <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
       <c r="BF16" s="1"/>
-      <c r="BH16" s="1"/>
+      <c r="BG16" s="1"/>
       <c r="BI16" s="1"/>
       <c r="BJ16" s="1"/>
       <c r="BK16" s="1"/>
@@ -3021,8 +3130,9 @@
       <c r="BO16" s="1"/>
       <c r="BP16" s="1"/>
       <c r="BQ16" s="1"/>
-    </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BR16" s="1"/>
+    </row>
+    <row r="17" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -3032,13 +3142,15 @@
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
         <v>0</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -3051,8 +3163,8 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
-      <c r="U17" s="1"/>
-      <c r="AI17" s="1"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="1"/>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
@@ -3076,7 +3188,7 @@
       <c r="BD17" s="1"/>
       <c r="BE17" s="1"/>
       <c r="BF17" s="1"/>
-      <c r="BH17" s="1"/>
+      <c r="BG17" s="1"/>
       <c r="BI17" s="1"/>
       <c r="BJ17" s="1"/>
       <c r="BK17" s="1"/>
@@ -3086,10 +3198,10 @@
       <c r="BO17" s="1"/>
       <c r="BP17" s="1"/>
       <c r="BQ17" s="1"/>
-    </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="D18" s="1"/>
-      <c r="AI18" s="1"/>
+      <c r="BR17" s="1"/>
+    </row>
+    <row r="18" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
@@ -3113,7 +3225,7 @@
       <c r="BD18" s="1"/>
       <c r="BE18" s="1"/>
       <c r="BF18" s="1"/>
-      <c r="BH18" s="1"/>
+      <c r="BG18" s="1"/>
       <c r="BI18" s="1"/>
       <c r="BJ18" s="1"/>
       <c r="BK18" s="1"/>
@@ -3123,10 +3235,10 @@
       <c r="BO18" s="1"/>
       <c r="BP18" s="1"/>
       <c r="BQ18" s="1"/>
-    </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="D19" s="1"/>
-      <c r="AI19" s="1"/>
+      <c r="BR18" s="1"/>
+    </row>
+    <row r="19" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
@@ -3150,7 +3262,7 @@
       <c r="BD19" s="1"/>
       <c r="BE19" s="1"/>
       <c r="BF19" s="1"/>
-      <c r="BH19" s="1"/>
+      <c r="BG19" s="1"/>
       <c r="BI19" s="1"/>
       <c r="BJ19" s="1"/>
       <c r="BK19" s="1"/>
@@ -3160,10 +3272,10 @@
       <c r="BO19" s="1"/>
       <c r="BP19" s="1"/>
       <c r="BQ19" s="1"/>
-    </row>
-    <row r="20" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="D20" s="1"/>
-      <c r="AI20" s="1"/>
+      <c r="BR19" s="1"/>
+    </row>
+    <row r="20" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
@@ -3187,7 +3299,7 @@
       <c r="BD20" s="1"/>
       <c r="BE20" s="1"/>
       <c r="BF20" s="1"/>
-      <c r="BH20" s="1"/>
+      <c r="BG20" s="1"/>
       <c r="BI20" s="1"/>
       <c r="BJ20" s="1"/>
       <c r="BK20" s="1"/>
@@ -3197,10 +3309,10 @@
       <c r="BO20" s="1"/>
       <c r="BP20" s="1"/>
       <c r="BQ20" s="1"/>
-    </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="D21" s="1"/>
-      <c r="AI21" s="1"/>
+      <c r="BR20" s="1"/>
+    </row>
+    <row r="21" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
@@ -3224,7 +3336,7 @@
       <c r="BD21" s="1"/>
       <c r="BE21" s="1"/>
       <c r="BF21" s="1"/>
-      <c r="BH21" s="1"/>
+      <c r="BG21" s="1"/>
       <c r="BI21" s="1"/>
       <c r="BJ21" s="1"/>
       <c r="BK21" s="1"/>
@@ -3234,10 +3346,10 @@
       <c r="BO21" s="1"/>
       <c r="BP21" s="1"/>
       <c r="BQ21" s="1"/>
-    </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="D22" s="1"/>
-      <c r="AI22" s="1"/>
+      <c r="BR21" s="1"/>
+    </row>
+    <row r="22" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
       <c r="AL22" s="1"/>
@@ -3261,7 +3373,7 @@
       <c r="BD22" s="1"/>
       <c r="BE22" s="1"/>
       <c r="BF22" s="1"/>
-      <c r="BH22" s="1"/>
+      <c r="BG22" s="1"/>
       <c r="BI22" s="1"/>
       <c r="BJ22" s="1"/>
       <c r="BK22" s="1"/>
@@ -3271,10 +3383,10 @@
       <c r="BO22" s="1"/>
       <c r="BP22" s="1"/>
       <c r="BQ22" s="1"/>
-    </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="D23" s="1"/>
-      <c r="AI23" s="1"/>
+      <c r="BR22" s="1"/>
+    </row>
+    <row r="23" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="E23" s="1"/>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
       <c r="AL23" s="1"/>
@@ -3298,7 +3410,7 @@
       <c r="BD23" s="1"/>
       <c r="BE23" s="1"/>
       <c r="BF23" s="1"/>
-      <c r="BH23" s="1"/>
+      <c r="BG23" s="1"/>
       <c r="BI23" s="1"/>
       <c r="BJ23" s="1"/>
       <c r="BK23" s="1"/>
@@ -3308,10 +3420,10 @@
       <c r="BO23" s="1"/>
       <c r="BP23" s="1"/>
       <c r="BQ23" s="1"/>
-    </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="D24" s="1"/>
-      <c r="AI24" s="1"/>
+      <c r="BR23" s="1"/>
+    </row>
+    <row r="24" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
@@ -3335,7 +3447,7 @@
       <c r="BD24" s="1"/>
       <c r="BE24" s="1"/>
       <c r="BF24" s="1"/>
-      <c r="BH24" s="1"/>
+      <c r="BG24" s="1"/>
       <c r="BI24" s="1"/>
       <c r="BJ24" s="1"/>
       <c r="BK24" s="1"/>
@@ -3345,10 +3457,10 @@
       <c r="BO24" s="1"/>
       <c r="BP24" s="1"/>
       <c r="BQ24" s="1"/>
-    </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="D25" s="1"/>
-      <c r="AI25" s="1"/>
+      <c r="BR24" s="1"/>
+    </row>
+    <row r="25" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="E25" s="1"/>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
@@ -3372,7 +3484,7 @@
       <c r="BD25" s="1"/>
       <c r="BE25" s="1"/>
       <c r="BF25" s="1"/>
-      <c r="BH25" s="1"/>
+      <c r="BG25" s="1"/>
       <c r="BI25" s="1"/>
       <c r="BJ25" s="1"/>
       <c r="BK25" s="1"/>
@@ -3382,10 +3494,10 @@
       <c r="BO25" s="1"/>
       <c r="BP25" s="1"/>
       <c r="BQ25" s="1"/>
-    </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="D26" s="1"/>
-      <c r="AI26" s="1"/>
+      <c r="BR25" s="1"/>
+    </row>
+    <row r="26" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="E26" s="1"/>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
       <c r="AL26" s="1"/>
@@ -3409,7 +3521,7 @@
       <c r="BD26" s="1"/>
       <c r="BE26" s="1"/>
       <c r="BF26" s="1"/>
-      <c r="BH26" s="1"/>
+      <c r="BG26" s="1"/>
       <c r="BI26" s="1"/>
       <c r="BJ26" s="1"/>
       <c r="BK26" s="1"/>
@@ -3419,10 +3531,10 @@
       <c r="BO26" s="1"/>
       <c r="BP26" s="1"/>
       <c r="BQ26" s="1"/>
-    </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="D27" s="1"/>
-      <c r="AI27" s="1"/>
+      <c r="BR26" s="1"/>
+    </row>
+    <row r="27" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="E27" s="1"/>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
@@ -3446,7 +3558,7 @@
       <c r="BD27" s="1"/>
       <c r="BE27" s="1"/>
       <c r="BF27" s="1"/>
-      <c r="BH27" s="1"/>
+      <c r="BG27" s="1"/>
       <c r="BI27" s="1"/>
       <c r="BJ27" s="1"/>
       <c r="BK27" s="1"/>
@@ -3456,10 +3568,10 @@
       <c r="BO27" s="1"/>
       <c r="BP27" s="1"/>
       <c r="BQ27" s="1"/>
-    </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="D28" s="1"/>
-      <c r="AI28" s="1"/>
+      <c r="BR27" s="1"/>
+    </row>
+    <row r="28" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="E28" s="1"/>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
       <c r="AL28" s="1"/>
@@ -3483,7 +3595,7 @@
       <c r="BD28" s="1"/>
       <c r="BE28" s="1"/>
       <c r="BF28" s="1"/>
-      <c r="BH28" s="1"/>
+      <c r="BG28" s="1"/>
       <c r="BI28" s="1"/>
       <c r="BJ28" s="1"/>
       <c r="BK28" s="1"/>
@@ -3493,10 +3605,10 @@
       <c r="BO28" s="1"/>
       <c r="BP28" s="1"/>
       <c r="BQ28" s="1"/>
-    </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="D29" s="1"/>
-      <c r="AI29" s="1"/>
+      <c r="BR28" s="1"/>
+    </row>
+    <row r="29" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
       <c r="AL29" s="1"/>
@@ -3520,7 +3632,7 @@
       <c r="BD29" s="1"/>
       <c r="BE29" s="1"/>
       <c r="BF29" s="1"/>
-      <c r="BH29" s="1"/>
+      <c r="BG29" s="1"/>
       <c r="BI29" s="1"/>
       <c r="BJ29" s="1"/>
       <c r="BK29" s="1"/>
@@ -3530,10 +3642,10 @@
       <c r="BO29" s="1"/>
       <c r="BP29" s="1"/>
       <c r="BQ29" s="1"/>
-    </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="D30" s="1"/>
-      <c r="AI30" s="1"/>
+      <c r="BR29" s="1"/>
+    </row>
+    <row r="30" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="E30" s="1"/>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
       <c r="AL30" s="1"/>
@@ -3557,7 +3669,7 @@
       <c r="BD30" s="1"/>
       <c r="BE30" s="1"/>
       <c r="BF30" s="1"/>
-      <c r="BH30" s="1"/>
+      <c r="BG30" s="1"/>
       <c r="BI30" s="1"/>
       <c r="BJ30" s="1"/>
       <c r="BK30" s="1"/>
@@ -3567,10 +3679,10 @@
       <c r="BO30" s="1"/>
       <c r="BP30" s="1"/>
       <c r="BQ30" s="1"/>
-    </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="D31" s="1"/>
-      <c r="AI31" s="1"/>
+      <c r="BR30" s="1"/>
+    </row>
+    <row r="31" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="E31" s="1"/>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
       <c r="AL31" s="1"/>
@@ -3594,7 +3706,7 @@
       <c r="BD31" s="1"/>
       <c r="BE31" s="1"/>
       <c r="BF31" s="1"/>
-      <c r="BH31" s="1"/>
+      <c r="BG31" s="1"/>
       <c r="BI31" s="1"/>
       <c r="BJ31" s="1"/>
       <c r="BK31" s="1"/>
@@ -3604,10 +3716,10 @@
       <c r="BO31" s="1"/>
       <c r="BP31" s="1"/>
       <c r="BQ31" s="1"/>
-    </row>
-    <row r="32" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="D32" s="1"/>
-      <c r="AI32" s="1"/>
+      <c r="BR31" s="1"/>
+    </row>
+    <row r="32" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="E32" s="1"/>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
@@ -3631,7 +3743,7 @@
       <c r="BD32" s="1"/>
       <c r="BE32" s="1"/>
       <c r="BF32" s="1"/>
-      <c r="BH32" s="1"/>
+      <c r="BG32" s="1"/>
       <c r="BI32" s="1"/>
       <c r="BJ32" s="1"/>
       <c r="BK32" s="1"/>
@@ -3641,10 +3753,10 @@
       <c r="BO32" s="1"/>
       <c r="BP32" s="1"/>
       <c r="BQ32" s="1"/>
-    </row>
-    <row r="33" spans="4:69" x14ac:dyDescent="0.25">
-      <c r="D33" s="1"/>
-      <c r="AI33" s="1"/>
+      <c r="BR32" s="1"/>
+    </row>
+    <row r="33" spans="5:70" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
@@ -3668,7 +3780,7 @@
       <c r="BD33" s="1"/>
       <c r="BE33" s="1"/>
       <c r="BF33" s="1"/>
-      <c r="BH33" s="1"/>
+      <c r="BG33" s="1"/>
       <c r="BI33" s="1"/>
       <c r="BJ33" s="1"/>
       <c r="BK33" s="1"/>
@@ -3678,10 +3790,10 @@
       <c r="BO33" s="1"/>
       <c r="BP33" s="1"/>
       <c r="BQ33" s="1"/>
-    </row>
-    <row r="34" spans="4:69" x14ac:dyDescent="0.25">
-      <c r="D34" s="1"/>
-      <c r="AI34" s="1"/>
+      <c r="BR33" s="1"/>
+    </row>
+    <row r="34" spans="5:70" x14ac:dyDescent="0.25">
+      <c r="E34" s="1"/>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1"/>
       <c r="AL34" s="1"/>
@@ -3705,7 +3817,7 @@
       <c r="BD34" s="1"/>
       <c r="BE34" s="1"/>
       <c r="BF34" s="1"/>
-      <c r="BH34" s="1"/>
+      <c r="BG34" s="1"/>
       <c r="BI34" s="1"/>
       <c r="BJ34" s="1"/>
       <c r="BK34" s="1"/>
@@ -3715,10 +3827,10 @@
       <c r="BO34" s="1"/>
       <c r="BP34" s="1"/>
       <c r="BQ34" s="1"/>
-    </row>
-    <row r="35" spans="4:69" x14ac:dyDescent="0.25">
-      <c r="D35" s="1"/>
-      <c r="AI35" s="1"/>
+      <c r="BR34" s="1"/>
+    </row>
+    <row r="35" spans="5:70" x14ac:dyDescent="0.25">
+      <c r="E35" s="1"/>
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1"/>
       <c r="AL35" s="1"/>
@@ -3742,7 +3854,7 @@
       <c r="BD35" s="1"/>
       <c r="BE35" s="1"/>
       <c r="BF35" s="1"/>
-      <c r="BH35" s="1"/>
+      <c r="BG35" s="1"/>
       <c r="BI35" s="1"/>
       <c r="BJ35" s="1"/>
       <c r="BK35" s="1"/>
@@ -3752,10 +3864,10 @@
       <c r="BO35" s="1"/>
       <c r="BP35" s="1"/>
       <c r="BQ35" s="1"/>
-    </row>
-    <row r="36" spans="4:69" x14ac:dyDescent="0.25">
-      <c r="D36" s="1"/>
-      <c r="AI36" s="1"/>
+      <c r="BR35" s="1"/>
+    </row>
+    <row r="36" spans="5:70" x14ac:dyDescent="0.25">
+      <c r="E36" s="1"/>
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
@@ -3779,7 +3891,7 @@
       <c r="BD36" s="1"/>
       <c r="BE36" s="1"/>
       <c r="BF36" s="1"/>
-      <c r="BH36" s="1"/>
+      <c r="BG36" s="1"/>
       <c r="BI36" s="1"/>
       <c r="BJ36" s="1"/>
       <c r="BK36" s="1"/>
@@ -3789,10 +3901,10 @@
       <c r="BO36" s="1"/>
       <c r="BP36" s="1"/>
       <c r="BQ36" s="1"/>
-    </row>
-    <row r="37" spans="4:69" x14ac:dyDescent="0.25">
-      <c r="D37" s="1"/>
-      <c r="AI37" s="1"/>
+      <c r="BR36" s="1"/>
+    </row>
+    <row r="37" spans="5:70" x14ac:dyDescent="0.25">
+      <c r="E37" s="1"/>
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1"/>
       <c r="AL37" s="1"/>
@@ -3816,7 +3928,7 @@
       <c r="BD37" s="1"/>
       <c r="BE37" s="1"/>
       <c r="BF37" s="1"/>
-      <c r="BH37" s="1"/>
+      <c r="BG37" s="1"/>
       <c r="BI37" s="1"/>
       <c r="BJ37" s="1"/>
       <c r="BK37" s="1"/>
@@ -3826,10 +3938,10 @@
       <c r="BO37" s="1"/>
       <c r="BP37" s="1"/>
       <c r="BQ37" s="1"/>
-    </row>
-    <row r="38" spans="4:69" x14ac:dyDescent="0.25">
-      <c r="D38" s="1"/>
-      <c r="AI38" s="1"/>
+      <c r="BR37" s="1"/>
+    </row>
+    <row r="38" spans="5:70" x14ac:dyDescent="0.25">
+      <c r="E38" s="1"/>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
       <c r="AL38" s="1"/>
@@ -3853,7 +3965,7 @@
       <c r="BD38" s="1"/>
       <c r="BE38" s="1"/>
       <c r="BF38" s="1"/>
-      <c r="BH38" s="1"/>
+      <c r="BG38" s="1"/>
       <c r="BI38" s="1"/>
       <c r="BJ38" s="1"/>
       <c r="BK38" s="1"/>
@@ -3863,10 +3975,10 @@
       <c r="BO38" s="1"/>
       <c r="BP38" s="1"/>
       <c r="BQ38" s="1"/>
-    </row>
-    <row r="39" spans="4:69" x14ac:dyDescent="0.25">
-      <c r="D39" s="1"/>
-      <c r="AI39" s="1"/>
+      <c r="BR38" s="1"/>
+    </row>
+    <row r="39" spans="5:70" x14ac:dyDescent="0.25">
+      <c r="E39" s="1"/>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
       <c r="AL39" s="1"/>
@@ -3890,7 +4002,7 @@
       <c r="BD39" s="1"/>
       <c r="BE39" s="1"/>
       <c r="BF39" s="1"/>
-      <c r="BH39" s="1"/>
+      <c r="BG39" s="1"/>
       <c r="BI39" s="1"/>
       <c r="BJ39" s="1"/>
       <c r="BK39" s="1"/>
@@ -3900,10 +4012,10 @@
       <c r="BO39" s="1"/>
       <c r="BP39" s="1"/>
       <c r="BQ39" s="1"/>
-    </row>
-    <row r="40" spans="4:69" x14ac:dyDescent="0.25">
-      <c r="D40" s="1"/>
-      <c r="AI40" s="1"/>
+      <c r="BR39" s="1"/>
+    </row>
+    <row r="40" spans="5:70" x14ac:dyDescent="0.25">
+      <c r="E40" s="1"/>
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
       <c r="AL40" s="1"/>
@@ -3927,7 +4039,7 @@
       <c r="BD40" s="1"/>
       <c r="BE40" s="1"/>
       <c r="BF40" s="1"/>
-      <c r="BH40" s="1"/>
+      <c r="BG40" s="1"/>
       <c r="BI40" s="1"/>
       <c r="BJ40" s="1"/>
       <c r="BK40" s="1"/>
@@ -3937,10 +4049,10 @@
       <c r="BO40" s="1"/>
       <c r="BP40" s="1"/>
       <c r="BQ40" s="1"/>
-    </row>
-    <row r="41" spans="4:69" x14ac:dyDescent="0.25">
-      <c r="D41" s="1"/>
-      <c r="AI41" s="1"/>
+      <c r="BR40" s="1"/>
+    </row>
+    <row r="41" spans="5:70" x14ac:dyDescent="0.25">
+      <c r="E41" s="1"/>
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
       <c r="AL41" s="1"/>
@@ -3964,7 +4076,7 @@
       <c r="BD41" s="1"/>
       <c r="BE41" s="1"/>
       <c r="BF41" s="1"/>
-      <c r="BH41" s="1"/>
+      <c r="BG41" s="1"/>
       <c r="BI41" s="1"/>
       <c r="BJ41" s="1"/>
       <c r="BK41" s="1"/>
@@ -3974,10 +4086,10 @@
       <c r="BO41" s="1"/>
       <c r="BP41" s="1"/>
       <c r="BQ41" s="1"/>
-    </row>
-    <row r="42" spans="4:69" x14ac:dyDescent="0.25">
-      <c r="D42" s="1"/>
-      <c r="AI42" s="1"/>
+      <c r="BR41" s="1"/>
+    </row>
+    <row r="42" spans="5:70" x14ac:dyDescent="0.25">
+      <c r="E42" s="1"/>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
       <c r="AL42" s="1"/>
@@ -4001,7 +4113,7 @@
       <c r="BD42" s="1"/>
       <c r="BE42" s="1"/>
       <c r="BF42" s="1"/>
-      <c r="BH42" s="1"/>
+      <c r="BG42" s="1"/>
       <c r="BI42" s="1"/>
       <c r="BJ42" s="1"/>
       <c r="BK42" s="1"/>
@@ -4011,10 +4123,10 @@
       <c r="BO42" s="1"/>
       <c r="BP42" s="1"/>
       <c r="BQ42" s="1"/>
-    </row>
-    <row r="43" spans="4:69" x14ac:dyDescent="0.25">
-      <c r="D43" s="1"/>
-      <c r="AI43" s="1"/>
+      <c r="BR42" s="1"/>
+    </row>
+    <row r="43" spans="5:70" x14ac:dyDescent="0.25">
+      <c r="E43" s="1"/>
       <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
       <c r="AL43" s="1"/>
@@ -4038,7 +4150,7 @@
       <c r="BD43" s="1"/>
       <c r="BE43" s="1"/>
       <c r="BF43" s="1"/>
-      <c r="BH43" s="1"/>
+      <c r="BG43" s="1"/>
       <c r="BI43" s="1"/>
       <c r="BJ43" s="1"/>
       <c r="BK43" s="1"/>
@@ -4048,10 +4160,10 @@
       <c r="BO43" s="1"/>
       <c r="BP43" s="1"/>
       <c r="BQ43" s="1"/>
-    </row>
-    <row r="44" spans="4:69" x14ac:dyDescent="0.25">
-      <c r="D44" s="1"/>
-      <c r="AI44" s="1"/>
+      <c r="BR43" s="1"/>
+    </row>
+    <row r="44" spans="5:70" x14ac:dyDescent="0.25">
+      <c r="E44" s="1"/>
       <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
       <c r="AL44" s="1"/>
@@ -4075,7 +4187,7 @@
       <c r="BD44" s="1"/>
       <c r="BE44" s="1"/>
       <c r="BF44" s="1"/>
-      <c r="BH44" s="1"/>
+      <c r="BG44" s="1"/>
       <c r="BI44" s="1"/>
       <c r="BJ44" s="1"/>
       <c r="BK44" s="1"/>
@@ -4085,10 +4197,10 @@
       <c r="BO44" s="1"/>
       <c r="BP44" s="1"/>
       <c r="BQ44" s="1"/>
-    </row>
-    <row r="45" spans="4:69" x14ac:dyDescent="0.25">
-      <c r="D45" s="1"/>
-      <c r="AI45" s="1"/>
+      <c r="BR44" s="1"/>
+    </row>
+    <row r="45" spans="5:70" x14ac:dyDescent="0.25">
+      <c r="E45" s="1"/>
       <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
       <c r="AL45" s="1"/>
@@ -4112,7 +4224,7 @@
       <c r="BD45" s="1"/>
       <c r="BE45" s="1"/>
       <c r="BF45" s="1"/>
-      <c r="BH45" s="1"/>
+      <c r="BG45" s="1"/>
       <c r="BI45" s="1"/>
       <c r="BJ45" s="1"/>
       <c r="BK45" s="1"/>
@@ -4122,10 +4234,10 @@
       <c r="BO45" s="1"/>
       <c r="BP45" s="1"/>
       <c r="BQ45" s="1"/>
-    </row>
-    <row r="46" spans="4:69" x14ac:dyDescent="0.25">
-      <c r="D46" s="1"/>
-      <c r="AI46" s="1"/>
+      <c r="BR45" s="1"/>
+    </row>
+    <row r="46" spans="5:70" x14ac:dyDescent="0.25">
+      <c r="E46" s="1"/>
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
       <c r="AL46" s="1"/>
@@ -4149,7 +4261,7 @@
       <c r="BD46" s="1"/>
       <c r="BE46" s="1"/>
       <c r="BF46" s="1"/>
-      <c r="BH46" s="1"/>
+      <c r="BG46" s="1"/>
       <c r="BI46" s="1"/>
       <c r="BJ46" s="1"/>
       <c r="BK46" s="1"/>
@@ -4159,10 +4271,10 @@
       <c r="BO46" s="1"/>
       <c r="BP46" s="1"/>
       <c r="BQ46" s="1"/>
-    </row>
-    <row r="47" spans="4:69" x14ac:dyDescent="0.25">
-      <c r="D47" s="1"/>
-      <c r="AI47" s="1"/>
+      <c r="BR46" s="1"/>
+    </row>
+    <row r="47" spans="5:70" x14ac:dyDescent="0.25">
+      <c r="E47" s="1"/>
       <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
       <c r="AL47" s="1"/>
@@ -4186,7 +4298,7 @@
       <c r="BD47" s="1"/>
       <c r="BE47" s="1"/>
       <c r="BF47" s="1"/>
-      <c r="BH47" s="1"/>
+      <c r="BG47" s="1"/>
       <c r="BI47" s="1"/>
       <c r="BJ47" s="1"/>
       <c r="BK47" s="1"/>
@@ -4196,10 +4308,10 @@
       <c r="BO47" s="1"/>
       <c r="BP47" s="1"/>
       <c r="BQ47" s="1"/>
-    </row>
-    <row r="48" spans="4:69" x14ac:dyDescent="0.25">
-      <c r="D48" s="1"/>
-      <c r="AI48" s="1"/>
+      <c r="BR47" s="1"/>
+    </row>
+    <row r="48" spans="5:70" x14ac:dyDescent="0.25">
+      <c r="E48" s="1"/>
       <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
       <c r="AL48" s="1"/>
@@ -4223,7 +4335,7 @@
       <c r="BD48" s="1"/>
       <c r="BE48" s="1"/>
       <c r="BF48" s="1"/>
-      <c r="BH48" s="1"/>
+      <c r="BG48" s="1"/>
       <c r="BI48" s="1"/>
       <c r="BJ48" s="1"/>
       <c r="BK48" s="1"/>
@@ -4233,10 +4345,10 @@
       <c r="BO48" s="1"/>
       <c r="BP48" s="1"/>
       <c r="BQ48" s="1"/>
-    </row>
-    <row r="49" spans="4:69" x14ac:dyDescent="0.25">
-      <c r="D49" s="1"/>
-      <c r="AI49" s="1"/>
+      <c r="BR48" s="1"/>
+    </row>
+    <row r="49" spans="5:70" x14ac:dyDescent="0.25">
+      <c r="E49" s="1"/>
       <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
@@ -4260,7 +4372,7 @@
       <c r="BD49" s="1"/>
       <c r="BE49" s="1"/>
       <c r="BF49" s="1"/>
-      <c r="BH49" s="1"/>
+      <c r="BG49" s="1"/>
       <c r="BI49" s="1"/>
       <c r="BJ49" s="1"/>
       <c r="BK49" s="1"/>
@@ -4270,10 +4382,10 @@
       <c r="BO49" s="1"/>
       <c r="BP49" s="1"/>
       <c r="BQ49" s="1"/>
-    </row>
-    <row r="50" spans="4:69" x14ac:dyDescent="0.25">
-      <c r="D50" s="1"/>
-      <c r="AI50" s="1"/>
+      <c r="BR49" s="1"/>
+    </row>
+    <row r="50" spans="5:70" x14ac:dyDescent="0.25">
+      <c r="E50" s="1"/>
       <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
       <c r="AL50" s="1"/>
@@ -4297,7 +4409,7 @@
       <c r="BD50" s="1"/>
       <c r="BE50" s="1"/>
       <c r="BF50" s="1"/>
-      <c r="BH50" s="1"/>
+      <c r="BG50" s="1"/>
       <c r="BI50" s="1"/>
       <c r="BJ50" s="1"/>
       <c r="BK50" s="1"/>
@@ -4307,10 +4419,10 @@
       <c r="BO50" s="1"/>
       <c r="BP50" s="1"/>
       <c r="BQ50" s="1"/>
-    </row>
-    <row r="51" spans="4:69" x14ac:dyDescent="0.25">
-      <c r="D51" s="1"/>
-      <c r="AI51" s="1"/>
+      <c r="BR50" s="1"/>
+    </row>
+    <row r="51" spans="5:70" x14ac:dyDescent="0.25">
+      <c r="E51" s="1"/>
       <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
       <c r="AL51" s="1"/>
@@ -4334,7 +4446,7 @@
       <c r="BD51" s="1"/>
       <c r="BE51" s="1"/>
       <c r="BF51" s="1"/>
-      <c r="BH51" s="1"/>
+      <c r="BG51" s="1"/>
       <c r="BI51" s="1"/>
       <c r="BJ51" s="1"/>
       <c r="BK51" s="1"/>
@@ -4344,10 +4456,10 @@
       <c r="BO51" s="1"/>
       <c r="BP51" s="1"/>
       <c r="BQ51" s="1"/>
-    </row>
-    <row r="52" spans="4:69" x14ac:dyDescent="0.25">
-      <c r="D52" s="1"/>
-      <c r="AI52" s="1"/>
+      <c r="BR51" s="1"/>
+    </row>
+    <row r="52" spans="5:70" x14ac:dyDescent="0.25">
+      <c r="E52" s="1"/>
       <c r="AJ52" s="1"/>
       <c r="AK52" s="1"/>
       <c r="AL52" s="1"/>
@@ -4371,7 +4483,7 @@
       <c r="BD52" s="1"/>
       <c r="BE52" s="1"/>
       <c r="BF52" s="1"/>
-      <c r="BH52" s="1"/>
+      <c r="BG52" s="1"/>
       <c r="BI52" s="1"/>
       <c r="BJ52" s="1"/>
       <c r="BK52" s="1"/>
@@ -4381,10 +4493,10 @@
       <c r="BO52" s="1"/>
       <c r="BP52" s="1"/>
       <c r="BQ52" s="1"/>
-    </row>
-    <row r="53" spans="4:69" x14ac:dyDescent="0.25">
-      <c r="D53" s="1"/>
-      <c r="AI53" s="1"/>
+      <c r="BR52" s="1"/>
+    </row>
+    <row r="53" spans="5:70" x14ac:dyDescent="0.25">
+      <c r="E53" s="1"/>
       <c r="AJ53" s="1"/>
       <c r="AK53" s="1"/>
       <c r="AL53" s="1"/>
@@ -4408,7 +4520,7 @@
       <c r="BD53" s="1"/>
       <c r="BE53" s="1"/>
       <c r="BF53" s="1"/>
-      <c r="BH53" s="1"/>
+      <c r="BG53" s="1"/>
       <c r="BI53" s="1"/>
       <c r="BJ53" s="1"/>
       <c r="BK53" s="1"/>
@@ -4418,10 +4530,10 @@
       <c r="BO53" s="1"/>
       <c r="BP53" s="1"/>
       <c r="BQ53" s="1"/>
-    </row>
-    <row r="54" spans="4:69" x14ac:dyDescent="0.25">
-      <c r="D54" s="1"/>
-      <c r="AI54" s="1"/>
+      <c r="BR53" s="1"/>
+    </row>
+    <row r="54" spans="5:70" x14ac:dyDescent="0.25">
+      <c r="E54" s="1"/>
       <c r="AJ54" s="1"/>
       <c r="AK54" s="1"/>
       <c r="AL54" s="1"/>
@@ -4445,7 +4557,7 @@
       <c r="BD54" s="1"/>
       <c r="BE54" s="1"/>
       <c r="BF54" s="1"/>
-      <c r="BH54" s="1"/>
+      <c r="BG54" s="1"/>
       <c r="BI54" s="1"/>
       <c r="BJ54" s="1"/>
       <c r="BK54" s="1"/>
@@ -4455,10 +4567,10 @@
       <c r="BO54" s="1"/>
       <c r="BP54" s="1"/>
       <c r="BQ54" s="1"/>
-    </row>
-    <row r="55" spans="4:69" x14ac:dyDescent="0.25">
-      <c r="D55" s="1"/>
-      <c r="AI55" s="1"/>
+      <c r="BR54" s="1"/>
+    </row>
+    <row r="55" spans="5:70" x14ac:dyDescent="0.25">
+      <c r="E55" s="1"/>
       <c r="AJ55" s="1"/>
       <c r="AK55" s="1"/>
       <c r="AL55" s="1"/>
@@ -4482,7 +4594,7 @@
       <c r="BD55" s="1"/>
       <c r="BE55" s="1"/>
       <c r="BF55" s="1"/>
-      <c r="BH55" s="1"/>
+      <c r="BG55" s="1"/>
       <c r="BI55" s="1"/>
       <c r="BJ55" s="1"/>
       <c r="BK55" s="1"/>
@@ -4492,10 +4604,10 @@
       <c r="BO55" s="1"/>
       <c r="BP55" s="1"/>
       <c r="BQ55" s="1"/>
-    </row>
-    <row r="56" spans="4:69" x14ac:dyDescent="0.25">
-      <c r="D56" s="1"/>
-      <c r="AI56" s="1"/>
+      <c r="BR55" s="1"/>
+    </row>
+    <row r="56" spans="5:70" x14ac:dyDescent="0.25">
+      <c r="E56" s="1"/>
       <c r="AJ56" s="1"/>
       <c r="AK56" s="1"/>
       <c r="AL56" s="1"/>
@@ -4519,7 +4631,7 @@
       <c r="BD56" s="1"/>
       <c r="BE56" s="1"/>
       <c r="BF56" s="1"/>
-      <c r="BH56" s="1"/>
+      <c r="BG56" s="1"/>
       <c r="BI56" s="1"/>
       <c r="BJ56" s="1"/>
       <c r="BK56" s="1"/>
@@ -4529,10 +4641,10 @@
       <c r="BO56" s="1"/>
       <c r="BP56" s="1"/>
       <c r="BQ56" s="1"/>
-    </row>
-    <row r="57" spans="4:69" x14ac:dyDescent="0.25">
-      <c r="D57" s="1"/>
-      <c r="AI57" s="1"/>
+      <c r="BR56" s="1"/>
+    </row>
+    <row r="57" spans="5:70" x14ac:dyDescent="0.25">
+      <c r="E57" s="1"/>
       <c r="AJ57" s="1"/>
       <c r="AK57" s="1"/>
       <c r="AL57" s="1"/>
@@ -4556,7 +4668,7 @@
       <c r="BD57" s="1"/>
       <c r="BE57" s="1"/>
       <c r="BF57" s="1"/>
-      <c r="BH57" s="1"/>
+      <c r="BG57" s="1"/>
       <c r="BI57" s="1"/>
       <c r="BJ57" s="1"/>
       <c r="BK57" s="1"/>
@@ -4566,10 +4678,10 @@
       <c r="BO57" s="1"/>
       <c r="BP57" s="1"/>
       <c r="BQ57" s="1"/>
-    </row>
-    <row r="58" spans="4:69" x14ac:dyDescent="0.25">
-      <c r="D58" s="1"/>
-      <c r="AI58" s="1"/>
+      <c r="BR57" s="1"/>
+    </row>
+    <row r="58" spans="5:70" x14ac:dyDescent="0.25">
+      <c r="E58" s="1"/>
       <c r="AJ58" s="1"/>
       <c r="AK58" s="1"/>
       <c r="AL58" s="1"/>
@@ -4593,7 +4705,7 @@
       <c r="BD58" s="1"/>
       <c r="BE58" s="1"/>
       <c r="BF58" s="1"/>
-      <c r="BH58" s="1"/>
+      <c r="BG58" s="1"/>
       <c r="BI58" s="1"/>
       <c r="BJ58" s="1"/>
       <c r="BK58" s="1"/>
@@ -4603,10 +4715,10 @@
       <c r="BO58" s="1"/>
       <c r="BP58" s="1"/>
       <c r="BQ58" s="1"/>
-    </row>
-    <row r="59" spans="4:69" x14ac:dyDescent="0.25">
-      <c r="D59" s="1"/>
-      <c r="AI59" s="1"/>
+      <c r="BR58" s="1"/>
+    </row>
+    <row r="59" spans="5:70" x14ac:dyDescent="0.25">
+      <c r="E59" s="1"/>
       <c r="AJ59" s="1"/>
       <c r="AK59" s="1"/>
       <c r="AL59" s="1"/>
@@ -4630,7 +4742,7 @@
       <c r="BD59" s="1"/>
       <c r="BE59" s="1"/>
       <c r="BF59" s="1"/>
-      <c r="BH59" s="1"/>
+      <c r="BG59" s="1"/>
       <c r="BI59" s="1"/>
       <c r="BJ59" s="1"/>
       <c r="BK59" s="1"/>
@@ -4640,10 +4752,10 @@
       <c r="BO59" s="1"/>
       <c r="BP59" s="1"/>
       <c r="BQ59" s="1"/>
-    </row>
-    <row r="60" spans="4:69" x14ac:dyDescent="0.25">
-      <c r="D60" s="1"/>
-      <c r="AI60" s="1"/>
+      <c r="BR59" s="1"/>
+    </row>
+    <row r="60" spans="5:70" x14ac:dyDescent="0.25">
+      <c r="E60" s="1"/>
       <c r="AJ60" s="1"/>
       <c r="AK60" s="1"/>
       <c r="AL60" s="1"/>
@@ -4667,7 +4779,7 @@
       <c r="BD60" s="1"/>
       <c r="BE60" s="1"/>
       <c r="BF60" s="1"/>
-      <c r="BH60" s="1"/>
+      <c r="BG60" s="1"/>
       <c r="BI60" s="1"/>
       <c r="BJ60" s="1"/>
       <c r="BK60" s="1"/>
@@ -4677,6 +4789,7 @@
       <c r="BO60" s="1"/>
       <c r="BP60" s="1"/>
       <c r="BQ60" s="1"/>
+      <c r="BR60" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
